--- a/Toolsets/Calculators/Boundary_Momentum/Interest Rates/BOE/XLS Files/Lambda/Base_Equation _ ITCSOLDP.xlsx
+++ b/Toolsets/Calculators/Boundary_Momentum/Interest Rates/BOE/XLS Files/Lambda/Base_Equation _ ITCSOLDP.xlsx
@@ -46,8 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000000000000000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -138,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -176,6 +177,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -281,11 +285,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2043033533"/>
-        <c:axId val="438715643"/>
+        <c:axId val="688363732"/>
+        <c:axId val="2073031687"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043033533"/>
+        <c:axId val="688363732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,10 +341,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438715643"/>
+        <c:crossAx val="2073031687"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438715643"/>
+        <c:axId val="2073031687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043033533"/>
+        <c:crossAx val="688363732"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2048,7 +2052,7 @@
         <f>((C13/(1.4^5)))</f>
         <v>6.476914827</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <f>((C13/(4.1^5)))</f>
         <v>0.03006692961</v>
       </c>
